--- a/biology/Botanique/Jardins_Nelson_Mandela/Jardins_Nelson_Mandela.xlsx
+++ b/biology/Botanique/Jardins_Nelson_Mandela/Jardins_Nelson_Mandela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins Nelson Mandela (Nelson Mandela Gardens) sont situés à Leeds, en Angleterre. Ils ont été créés en 1983, en guise de soutien pour sa lutte contre le système de l'apartheid en Afrique du Sud, alors qu'il est emprisonné depuis presque 20 ans. Une cérémonie en son honneur s'est déroulée en ces lieux en décembre 1983.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Jardins Nelson Mandela se situent à quelques mètres du Millennium Square (en), au cœur du centre-ville de Leeds, dans le Yorkshire de l'Ouest en Angleterre. Les Jardins ont été réaménagés en 2001 par la ville de Leeds en collaboration de la ville de Durban (Afrique du Sud), ancienne capitale du Natal et ancienne colonie britannique, à l'occasion de la construction du Millennium Square et avant tout en l'honneur de la visite de Nelson Mandela le 30 avril 2001. 
 Les Jardins symbolisent l'incarcération de Nelson Mandela sur l'île de Robben (Robben Island)et son itinéraire effectué jusqu'à sa mise en liberté. Ils célèbrent par la même occasion le dixième anniversaire de la démocratie en Afrique du Sud.
@@ -544,7 +558,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bassin a été construit à partir du calcaire blanc provenant de Portland. L'architecture du bassin a été étudiée et est entièrement symbolique : l'eau qui s'écoule dans le bassin est nettoyée de ses impuretés par la présence des roseaux. Les sculptures du bassin rejetant l'eau symbolisent les réminiscences de Nelson Mandela lorsqu'il était enfermé dans sa cellule, disparaissant en s'écoulant, l'eau représentant la vie et l'optimisme. 
 La pierre de couleur blanche représente toutes les pierres que Nelson Mandela a dû casser (et qui ont servi à bâtir sa légende) durant son incarcération dans le pénitencier (ancienne léproserie) de l'île de Robben de 1964 à 1982.
@@ -579,7 +595,9 @@
           <t>Extrait du discours de Nelson Mandela</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« C'est un moment exceptionnel pour moi. Quand je vois un brin d'herbe ou une feuille sur un arbre, quand j'entends les oiseaux gazouiller ou un cours d'eau s'écouler. Voir ce jardin me remémore mon enfance et les jours heureux. Grâce à lui, je suis en paix avec moi-même, en paix avec le monde entier, en paix avec la population de Leeds. »
 </t>
